--- a/tabla gpu.xlsx
+++ b/tabla gpu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-pal\Documents\BigData-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E693472-C583-4AE8-8D99-D5358CC268B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA1A23-2E29-4E10-AFB9-1C9D3BC493AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09E658A3-032F-4D70-92B6-A92EECE62A63}"/>
   </bookViews>
@@ -35,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
-  <si>
-    <t>Nvidia RTX</t>
-  </si>
-  <si>
-    <t>AMD Radeon Pro</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Radeon Pro W6800</t>
   </si>
@@ -52,45 +46,18 @@
     <t>Radeon Pro W6400</t>
   </si>
   <si>
-    <t>Peak Half Precision (FP16)</t>
-  </si>
-  <si>
     <t>Peak Single Precision (FP32)</t>
   </si>
   <si>
-    <t>Peak Double Precision (FP64)</t>
-  </si>
-  <si>
-    <t>35.66</t>
-  </si>
-  <si>
-    <t>17.83</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
     <t>Unidades de procesamiento</t>
   </si>
   <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8 </t>
-  </si>
-  <si>
     <t>Performance (TFLOPs)</t>
   </si>
   <si>
     <t>Memoria (GB)</t>
   </si>
   <si>
-    <t>7.07</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
     <t>Arquitectura</t>
   </si>
   <si>
@@ -118,12 +85,6 @@
     <t>NVIDIA RTX A6000</t>
   </si>
   <si>
-    <t>Stream processors</t>
-  </si>
-  <si>
-    <t>Nvidia Geforce RTX</t>
-  </si>
-  <si>
     <t>NVIDIA RTX A5000</t>
   </si>
   <si>
@@ -139,19 +100,34 @@
     <t>Nvidia Geforce RTX 3090 Ti</t>
   </si>
   <si>
-    <t>CUDA Cores</t>
-  </si>
-  <si>
     <t>Nvidia Geforce RTX 3090</t>
   </si>
   <si>
-    <t xml:space="preserve">Tensor Cores </t>
-  </si>
-  <si>
     <t>Tensor performance</t>
   </si>
   <si>
     <t>Precio unitario (S/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarjeta </t>
+  </si>
+  <si>
+    <t>NVIDIA CUDA Cores o AMD stream processors</t>
+  </si>
+  <si>
+    <t>NVIDIA Tensor Cores</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Radeon Pro WX 9100 Graphics</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>No hallado</t>
   </si>
 </sst>
 </file>
@@ -160,7 +136,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -192,20 +168,324 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -214,19 +494,90 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -543,351 +894,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C15FE1-E016-4DFB-B6AB-9210A8703BCD}">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21.1796875" customWidth="1"/>
     <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
     <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="22"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12">
+        <v>10752</v>
+      </c>
+      <c r="E3" s="11">
+        <v>336</v>
+      </c>
+      <c r="F3" s="13">
+        <v>48</v>
+      </c>
+      <c r="G3" s="13">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="H3" s="13">
+        <v>309.7</v>
+      </c>
+      <c r="I3" s="14">
+        <v>20561.990000000002</v>
+      </c>
+      <c r="J3" s="25">
+        <f>I3*100</f>
+        <v>2056199.0000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10240</v>
+      </c>
+      <c r="E4" s="3">
+        <v>320</v>
+      </c>
+      <c r="F4" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>272.8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8192</v>
+      </c>
+      <c r="E5" s="3">
+        <v>256</v>
+      </c>
+      <c r="F5" s="2">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>222.2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>8954.99</v>
+      </c>
+      <c r="J5" s="27">
+        <f t="shared" ref="J4:J10" si="0">I5*100</f>
+        <v>895499</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7168</v>
+      </c>
+      <c r="E6" s="3">
+        <v>224</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>23.7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>189.2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6882.99</v>
+      </c>
+      <c r="J6" s="27">
+        <f t="shared" si="0"/>
+        <v>688299</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6144</v>
+      </c>
+      <c r="E7" s="3">
+        <v>192</v>
+      </c>
+      <c r="F7" s="2">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>153.4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4026.99</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>402699</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="16">
+        <v>3328</v>
+      </c>
+      <c r="E8" s="15">
+        <v>104</v>
+      </c>
+      <c r="F8" s="17">
+        <v>12</v>
+      </c>
+      <c r="G8" s="17">
+        <v>8</v>
+      </c>
+      <c r="H8" s="17">
+        <v>63.9</v>
+      </c>
+      <c r="I8" s="18">
+        <v>2683.99</v>
+      </c>
+      <c r="J8" s="29">
+        <f t="shared" si="0"/>
+        <v>268399</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="B9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12">
+        <v>10752</v>
+      </c>
+      <c r="E9" s="11">
+        <v>336</v>
+      </c>
+      <c r="F9" s="13">
+        <v>24</v>
+      </c>
+      <c r="G9" s="13">
+        <v>40</v>
+      </c>
+      <c r="H9" s="13">
+        <v>320</v>
+      </c>
+      <c r="I9" s="14">
+        <v>8811.99</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="0"/>
+        <v>881199</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16">
+        <v>10496</v>
+      </c>
+      <c r="E10" s="15">
+        <v>328</v>
+      </c>
+      <c r="F10" s="17">
+        <v>24</v>
+      </c>
+      <c r="G10" s="17">
+        <v>35.58</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="18">
+        <v>7760.49</v>
+      </c>
+      <c r="J10" s="29">
+        <f t="shared" si="0"/>
+        <v>776049</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3840</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="9">
+        <v>32</v>
+      </c>
+      <c r="G11" s="9">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1792</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18">
+        <v>768</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="17">
+        <v>4</v>
+      </c>
+      <c r="G13" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="35">
+        <v>4096</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="37">
+        <v>16</v>
+      </c>
+      <c r="G14" s="37">
+        <v>12.3</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="35">
+        <v>8169.49</v>
+      </c>
+      <c r="J14" s="38">
+        <f>I14*100</f>
+        <v>816949</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M15" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5">
-        <v>10752</v>
-      </c>
-      <c r="E3" s="1">
-        <v>336</v>
-      </c>
-      <c r="F3">
-        <v>48</v>
-      </c>
-      <c r="H3">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="J3">
-        <v>309.7</v>
-      </c>
-      <c r="K3" s="3">
-        <v>20561.990000000002</v>
-      </c>
-      <c r="L3" s="3">
-        <f>K3*100</f>
-        <v>2056199.0000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5">
-        <v>10240</v>
-      </c>
-      <c r="E4" s="1">
-        <v>336</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="H4">
-        <v>34.1</v>
-      </c>
-      <c r="J4">
-        <v>272.8</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10240</v>
-      </c>
-      <c r="E5" s="1">
-        <v>336</v>
-      </c>
-      <c r="F5">
-        <v>24</v>
-      </c>
-      <c r="H5">
-        <v>27.8</v>
-      </c>
-      <c r="J5">
-        <v>222.2</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5">
-        <v>7168</v>
-      </c>
-      <c r="E6" s="1">
-        <v>224</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>23.7</v>
-      </c>
-      <c r="J6">
-        <v>189.2</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6144</v>
-      </c>
-      <c r="E7" s="1">
-        <v>192</v>
-      </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>19.2</v>
-      </c>
-      <c r="J7">
-        <v>153.4</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3328</v>
-      </c>
-      <c r="E8" s="1">
-        <v>104</v>
-      </c>
-      <c r="F8">
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>63.9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5">
-        <v>10752</v>
-      </c>
-      <c r="F10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5">
-        <v>10496</v>
-      </c>
-      <c r="E11" s="1">
-        <v>328</v>
-      </c>
-      <c r="F11">
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3840</v>
-      </c>
-      <c r="F13">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1792</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3">
-        <v>768</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="O17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N20" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D14">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I14">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J14">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G14">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N20" r:id="rId1" display="https://www.tradeinn.com/techinn/es/pny-tarjeta-grafica-vcnrtxa6000-pb-rtx-a6000-48gb/138185203/p?utm_source=google_products&amp;utm_medium=merchant&amp;id_producte=13506559&amp;country=pe&amp;gclid=CjwKCAjwquWVBhBrEiwAt1KmwpSetHQaUMDom2NRf1CFzlEB7PX5fj611u3SPaHqG9l8-EJG0k41sRoCnSQQAvD_BwE" xr:uid="{1F2BB15D-5F3C-4B38-BDD6-117E7D25A8C9}"/>
+    <hyperlink ref="L18" r:id="rId1" display="https://www.tradeinn.com/techinn/es/pny-tarjeta-grafica-vcnrtxa6000-pb-rtx-a6000-48gb/138185203/p?utm_source=google_products&amp;utm_medium=merchant&amp;id_producte=13506559&amp;country=pe&amp;gclid=CjwKCAjwquWVBhBrEiwAt1KmwpSetHQaUMDom2NRf1CFzlEB7PX5fj611u3SPaHqG9l8-EJG0k41sRoCnSQQAvD_BwE" xr:uid="{1F2BB15D-5F3C-4B38-BDD6-117E7D25A8C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
